--- a/classes/econ_5120/hw/01_homework/files/01_hw.xlsx
+++ b/classes/econ_5120/hw/01_homework/files/01_hw.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottpayseur/trash_this/payseur.github.io/classes/econ_5120/hw/01_homework/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19EC804-131A-7A4D-B1FD-2E7F6F3C0D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DB1549-F1E1-F649-904F-A575D55EF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="1420" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{D99AB052-6979-2043-ACB2-E70CDFDB4BF5}"/>
+    <workbookView xWindow="5960" yWindow="1420" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{D99AB052-6979-2043-ACB2-E70CDFDB4BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="cp3q2" sheetId="1" r:id="rId1"/>
     <sheet name="cp4q5" sheetId="2" r:id="rId2"/>
     <sheet name="cp4q7" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Population</t>
   </si>
@@ -148,16 +147,24 @@
   <si>
     <t>Relative to the U.S. values (US=1)</t>
   </si>
+  <si>
+    <t>Relative to the U.S. values (inverse) (US=1)</t>
+  </si>
+  <si>
+    <t>Cpp^1/3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -256,11 +263,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -271,8 +279,8 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -280,16 +288,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3584,7 +3595,7 @@
   <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4678,10 +4689,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357517D8-BE7B-0147-A190-6839524FADA0}">
+  <dimension ref="C2:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="19">
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="19">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="16" customHeight="1">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="20" thickBot="1">
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>175075</v>
+      </c>
+      <c r="E6" s="12">
+        <v>54807</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="19">
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11">
+        <v>153390</v>
+      </c>
+      <c r="E7" s="12">
+        <v>42540</v>
+      </c>
+      <c r="F7" s="13">
+        <f>D7/D$6</f>
+        <v>0.87613879765814651</v>
+      </c>
+      <c r="G7" s="13">
+        <f>E7/E$6</f>
+        <v>0.77617822540916304</v>
+      </c>
+      <c r="H7" s="13">
+        <f>F7^(1/3)</f>
+        <v>0.95688035275107641</v>
+      </c>
+      <c r="I7" s="13">
+        <f>G7/H7</f>
+        <v>0.81115494029908108</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="19">
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>136004</v>
+      </c>
+      <c r="E8" s="12">
+        <v>38841</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F15" si="0">D8/D$6</f>
+        <v>0.77683278594887906</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" ref="G8:G15" si="1">E8/E$6</f>
+        <v>0.70868684657069347</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" ref="H8:H15" si="2">F8^(1/3)</f>
+        <v>0.91926878964025094</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" ref="I8:I15" si="3">G8/H8</f>
+        <v>0.7709245158296224</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="19">
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11">
+        <v>154776</v>
+      </c>
+      <c r="E9" s="12">
+        <v>40603</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.88405540482650291</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.74083602459539843</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="2"/>
+        <v>0.9597537725089903</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="3"/>
+        <v>0.77190217513675763</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="19">
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
+        <v>142891</v>
+      </c>
+      <c r="E10" s="12">
+        <v>36521</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81617021276595747</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.66635648731001518</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.93453071582669978</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="3"/>
+        <v>0.71303861502352683</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="19">
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11">
+        <v>26620</v>
+      </c>
+      <c r="E11" s="12">
+        <v>10598</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15204912180494073</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.19336946010546099</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.53373781333553683</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="3"/>
+        <v>0.36229297470422683</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="19">
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11">
+        <v>31589</v>
+      </c>
+      <c r="E12" s="12">
+        <v>16469</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18043124375267741</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30049081321728977</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.56507216427836038</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.53177422675038177</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="19">
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11">
+        <v>41866</v>
+      </c>
+      <c r="E13" s="12">
+        <v>17070</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.23913180065686135</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31145656576714653</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.62069623542833019</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="3"/>
+        <v>0.50178581404189848</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="19">
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4179</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3069</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>2.3869770098529201E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="1"/>
+        <v>5.5996496797854289E-2</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="2"/>
+        <v>0.28792723413445936</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.19448141807837616</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="19">
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2938</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1596</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6781379408824789E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9120367836225299E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="2"/>
+        <v>0.2560211744409035</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11374202895451155</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="10"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:I3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6F39F2-D43C-7349-870D-A2AEF9090095}">
   <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4695,12 +5116,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="F2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="3:10" ht="19">
       <c r="C3" s="4"/>
@@ -4769,323 +5191,367 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="3:10" ht="19">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>175075</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>54807</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
+        <f t="shared" ref="F6:F13" si="0">D$6/D6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
+        <f t="shared" ref="G6:G13" si="1">E$6/E6</f>
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="19">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>153390</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>42540</v>
       </c>
-      <c r="F7" s="14">
-        <f>D7/D$6</f>
-        <v>0.87613879765814651</v>
-      </c>
-      <c r="G7" s="14">
-        <f>E7/E$6</f>
-        <v>0.77617822540916304</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1413716669926333</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.28836389280677</v>
+      </c>
+      <c r="H7" s="13">
         <f>F7^(1/3)</f>
-        <v>0.95688035275107641</v>
-      </c>
-      <c r="I7" s="14">
+        <v>1.0450627365531675</v>
+      </c>
+      <c r="I7" s="13">
         <f>G7/H7</f>
-        <v>0.81115494029908108</v>
+        <v>1.2328100962206918</v>
       </c>
     </row>
     <row r="8" spans="3:10" ht="19">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>136004</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>38841</v>
       </c>
-      <c r="F8" s="14">
-        <f t="shared" ref="F8:F15" si="0">D8/D$6</f>
-        <v>0.77683278594887906</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" ref="G8:G15" si="1">E8/E$6</f>
-        <v>0.70868684657069347</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2872783153436664</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4110604773306556</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" ref="H8:H15" si="2">F8^(1/3)</f>
-        <v>0.91926878964025094</v>
-      </c>
-      <c r="I8" s="14">
+        <v>1.0878211152924517</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" ref="I8:I15" si="3">G8/H8</f>
-        <v>0.7709245158296224</v>
+        <v>1.2971438571049465</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="19">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>154776</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>40603</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.88405540482650291</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="1"/>
-        <v>0.74083602459539843</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1311508244172224</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3498263675097899</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="2"/>
-        <v>0.9597537725089903</v>
-      </c>
-      <c r="I9" s="14">
+        <v>1.0419339091377551</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="3"/>
-        <v>0.77190217513675763</v>
+        <v>1.2955009484496276</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="19">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>142891</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>36521</v>
       </c>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.81617021276595747</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.66635648731001518</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2252346193952033</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5006982284165276</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="2"/>
-        <v>0.93453071582669978</v>
-      </c>
-      <c r="I10" s="14">
+        <v>1.0700557863583811</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="3"/>
-        <v>0.71303861502352683</v>
+        <v>1.4024485896419578</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="19">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>26620</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>10598</v>
       </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.15204912180494073</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="1"/>
-        <v>0.19336946010546099</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>6.576821938392186</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>5.1714474429137569</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="2"/>
-        <v>0.53373781333553683</v>
-      </c>
-      <c r="I11" s="14">
+        <v>1.8735790776197923</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="3"/>
-        <v>0.36229297470422683</v>
+        <v>2.7601970499604422</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="19">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>31589</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>16469</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.18043124375267741</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>0.30049081321728977</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5422773750356136</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3278887607019247</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="2"/>
-        <v>0.56507216427836038</v>
-      </c>
-      <c r="I12" s="14">
+        <v>1.769685472433552</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="3"/>
-        <v>0.53177422675038177</v>
+        <v>1.8804973044874673</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="19">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>41866</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>17070</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.23913180065686135</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="1"/>
-        <v>0.31145656576714653</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1817942960875172</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="1"/>
+        <v>3.2107205623901582</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="2"/>
-        <v>0.62069623542833019</v>
-      </c>
-      <c r="I13" s="14">
+        <v>1.6110940310600077</v>
+      </c>
+      <c r="I13" s="13">
         <f t="shared" si="3"/>
-        <v>0.50178581404189848</v>
+        <v>1.9928821660879024</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="19">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>4179</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>3069</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="0"/>
-        <v>2.3869770098529201E-2</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="1"/>
-        <v>5.5996496797854289E-2</v>
-      </c>
-      <c r="H14" s="14">
+      <c r="F14" s="13">
+        <f>D$6/D14</f>
+        <v>41.89399377841589</v>
+      </c>
+      <c r="G14" s="13">
+        <f>E$6/E14</f>
+        <v>17.858260019550343</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>0.28792723413445936</v>
-      </c>
-      <c r="I14" s="14">
+        <v>3.4730997330145197</v>
+      </c>
+      <c r="I14" s="13">
         <f t="shared" si="3"/>
-        <v>0.19448141807837616</v>
+        <v>5.1418794138831272</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="19">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>2938</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>1596</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6781379408824789E-2</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="1"/>
-        <v>2.9120367836225299E-2</v>
-      </c>
-      <c r="H15" s="14">
+      <c r="F15" s="13">
+        <f t="shared" ref="F6:F15" si="4">D$6/D15</f>
+        <v>59.589857045609257</v>
+      </c>
+      <c r="G15" s="13">
+        <f>E$6/E15</f>
+        <v>34.340225563909776</v>
+      </c>
+      <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>0.2560211744409035</v>
-      </c>
-      <c r="I15" s="14">
+        <v>3.9059269303946831</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="3"/>
-        <v>0.11374202895451155</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="15"/>
-    </row>
-    <row r="20" spans="3:3">
+        <v>8.7918248794377192</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="16">
+        <f>I14</f>
+        <v>5.1418794138831272</v>
+      </c>
+      <c r="H19" s="16">
+        <f>H14</f>
+        <v>3.4730997330145197</v>
+      </c>
+      <c r="I19" s="16">
+        <f>SUM(G19:H19)</f>
+        <v>8.614979146897646</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" s="10"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="15"/>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="F20" s="16"/>
+      <c r="G20" s="17">
+        <f>G19/I19</f>
+        <v>0.59685337900495994</v>
+      </c>
+      <c r="H20" s="17">
+        <f>H19/I19</f>
+        <v>0.40314662099504017</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16">
+        <f>I15</f>
+        <v>8.7918248794377192</v>
+      </c>
+      <c r="H21" s="16">
+        <f>H15</f>
+        <v>3.9059269303946831</v>
+      </c>
+      <c r="I21" s="16">
+        <f>SUM(G21:H21)</f>
+        <v>12.697751809832402</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="14"/>
+      <c r="G22" s="18">
+        <f>G21/I21</f>
+        <v>0.69239224479327433</v>
+      </c>
+      <c r="H22" s="17">
+        <f>H21/I21</f>
+        <v>0.30760775520672562</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="3:9">
       <c r="C24" s="10"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="15"/>
-    </row>
-    <row r="28" spans="3:3">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="28" spans="3:9">
       <c r="C28" s="10"/>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="15"/>
-    </row>
-    <row r="32" spans="3:3">
+    <row r="30" spans="3:9">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="32" spans="3:9">
       <c r="C32" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D3:I3" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6F39F2-D43C-7349-870D-A2AEF9090095}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD7F02D-B622-BF4E-9B42-1112F60C946C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>